--- a/data/Graph 1a.xlsx
+++ b/data/Graph 1a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lheld/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F53B9AD-FF33-6649-B0D0-F878FBD1357A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F9FF5B-7416-2C48-BE98-6058EBAF1DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7920" yWindow="6520" windowWidth="27640" windowHeight="16940" xr2:uid="{D7D8D1D6-2331-8545-975D-B16D190A84C4}"/>
   </bookViews>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895D69C1-FE84-A844-B62C-237EDFCF79BB}">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1044,6 +1044,136 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
